--- a/data/golf_scores.xlsx
+++ b/data/golf_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/53gnespoli/local/foreboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6922F45-D2D3-F14D-841F-E2064E5251CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7872BB-F394-494C-93ED-EADB8AC4183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7300" windowWidth="25600" windowHeight="28300" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>

--- a/data/golf_scores.xlsx
+++ b/data/golf_scores.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/53gnespoli/local/foreboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7872BB-F394-494C-93ED-EADB8AC4183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA5CCC-E0D4-E84B-9A5E-421D8D0CAE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
+    <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" r:id="rId1"/>
-    <sheet name="Courses" sheetId="2" r:id="rId2"/>
-    <sheet name="CourseRating" sheetId="3" r:id="rId3"/>
-    <sheet name="Legend" sheetId="6" r:id="rId4"/>
+    <sheet name="Courses (2)" sheetId="8" r:id="rId1"/>
+    <sheet name="Scores (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Scores" sheetId="1" r:id="rId3"/>
+    <sheet name="Courses" sheetId="2" r:id="rId4"/>
+    <sheet name="CourseRating" sheetId="3" r:id="rId5"/>
+    <sheet name="Legend" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="58">
   <si>
     <t>Golfer</t>
   </si>
@@ -173,6 +175,45 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Beaverdale</t>
+  </si>
+  <si>
+    <t>Vic Valley (Valley/Lakes)</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>3w</t>
+  </si>
+  <si>
+    <t>TeeDistance</t>
+  </si>
+  <si>
+    <t>ApproachDistance</t>
+  </si>
+  <si>
+    <t>9i</t>
+  </si>
+  <si>
+    <t>8i</t>
+  </si>
+  <si>
+    <t>6i</t>
+  </si>
+  <si>
+    <t>5i</t>
+  </si>
+  <si>
+    <t>7i</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -530,11 +571,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
-  <dimension ref="A1:W10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D960EBE-FF5E-5148-B413-D897889D3D22}">
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:W8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB85E6-76A3-DC41-A527-7684256B3457}">
+  <dimension ref="A1:W58"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +1415,7 @@
         <v>44765</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -697,7 +1486,7 @@
         <v>44765</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -768,7 +1557,7 @@
         <v>44765</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -839,7 +1628,7 @@
         <v>44765</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -862,7 +1651,7 @@
         <v>44765</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -882,7 +1671,7 @@
         <v>44765</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1105,6 +1894,1237 @@
       </c>
       <c r="W10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1112,12 +3132,1676 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>221</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>154</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>158</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>216</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>205</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>149</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>173</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>233</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18">
+        <v>236</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>104</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <v>159</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23">
+        <v>122</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>97</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>110</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32">
+        <v>131</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34">
+        <v>223</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>47</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35">
+        <v>135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36">
+        <v>147</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37">
+        <v>129</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38">
+        <v>195</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38">
+        <v>129</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39">
+        <v>225</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>95</v>
+      </c>
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40">
+        <v>205</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40">
+        <v>99</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41">
+        <v>127</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42">
+        <v>143</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43">
+        <v>240</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43">
+        <v>159</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44">
+        <v>101</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45">
+        <v>167</v>
+      </c>
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45">
+        <v>191</v>
+      </c>
+      <c r="M45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46">
+        <v>163</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>80</v>
+      </c>
+      <c r="M46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01E6677-D360-FF48-A560-78F9857B7D01}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +4812,7 @@
     <col min="4" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1136,201 +4820,768 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
         <v>3</v>
       </c>
     </row>
@@ -1340,7 +5591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB4061B-B5D9-BF4E-A29C-54303FD0995D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1385,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36445168-5FC4-8840-96C0-35655D3C374B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/golf_scores.xlsx
+++ b/data/golf_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/53gnespoli/local/foreboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA5CCC-E0D4-E84B-9A5E-421D8D0CAE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7665E3-A3CA-4C47-B5B8-B20E3D5996F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
+    <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses (2)" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="CourseRating" sheetId="3" r:id="rId5"/>
     <sheet name="Legend" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scores!$A$1:$M$55</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="68">
   <si>
     <t>Golfer</t>
   </si>
@@ -214,6 +217,36 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Vic Valley (Valley)</t>
+  </si>
+  <si>
+    <t>Vic Valley (Lakes)</t>
+  </si>
+  <si>
+    <t>Merry Hill (White)</t>
+  </si>
+  <si>
+    <t>Merry Hill (Red)</t>
+  </si>
+  <si>
+    <t>Merry Hill (Blue)</t>
+  </si>
+  <si>
+    <t>Handicap</t>
+  </si>
+  <si>
+    <t>Vic Valley (Pines)</t>
+  </si>
+  <si>
+    <t>Brookfield (Gold)</t>
+  </si>
+  <si>
+    <t>Brookfield (Blue)</t>
+  </si>
+  <si>
+    <t>Brookfield (Red)</t>
   </si>
 </sst>
 </file>
@@ -3134,27 +3167,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -3203,10 +3234,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -3218,36 +3249,27 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -3259,16 +3281,25 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3276,10 +3307,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3291,16 +3322,25 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4">
+        <v>145</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3308,10 +3348,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -3320,39 +3360,30 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -3370,7 +3401,7 @@
         <v>52</v>
       </c>
       <c r="I6">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -3381,10 +3412,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -3393,19 +3424,19 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I7">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -3413,10 +3444,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -3425,19 +3456,28 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -3445,10 +3485,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -3460,16 +3500,25 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <v>202</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -3477,10 +3526,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>44765</v>
+        <v>44756</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -3489,28 +3538,28 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I10">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -3521,13 +3570,13 @@
         <v>44765</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -3536,13 +3585,22 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -3553,38 +3611,29 @@
         <v>44765</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I12">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3594,37 +3643,28 @@
         <v>44765</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I13">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13">
-        <v>130</v>
-      </c>
-      <c r="M13" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -3635,27 +3675,36 @@
         <v>44765</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3667,28 +3716,28 @@
         <v>44765</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -3699,28 +3748,28 @@
         <v>44765</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I16">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -3731,28 +3780,28 @@
         <v>44765</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -3763,38 +3812,29 @@
         <v>44765</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I18">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
         <v>29</v>
       </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18">
-        <v>236</v>
-      </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -3804,28 +3844,37 @@
         <v>44765</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I19">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19">
+        <v>125</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -3833,10 +3882,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -3851,13 +3900,13 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I20">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -3865,10 +3914,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -3877,28 +3926,28 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -3906,10 +3955,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -3918,28 +3967,28 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>39</v>
       </c>
       <c r="I22">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L22">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -3947,10 +3996,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -3959,19 +4008,19 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -3979,10 +4028,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -3991,16 +4040,16 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>
@@ -4011,10 +4060,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -4023,19 +4072,19 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I25">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -4043,10 +4092,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -4055,19 +4104,19 @@
         <v>7</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I26">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -4075,10 +4124,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -4087,19 +4136,28 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I27">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -4107,10 +4165,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>44747</v>
+        <v>44765</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -4119,19 +4177,19 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I28">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -4139,31 +4197,40 @@
         <v>24</v>
       </c>
       <c r="B29" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I29">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29">
+        <v>129</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4171,19 +4238,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -4192,7 +4259,7 @@
         <v>48</v>
       </c>
       <c r="I30">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
@@ -4201,10 +4268,10 @@
         <v>38</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4212,31 +4279,40 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31">
+        <v>99</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4244,31 +4320,31 @@
         <v>24</v>
       </c>
       <c r="B32" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
       </c>
       <c r="I32">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4276,40 +4352,31 @@
         <v>24</v>
       </c>
       <c r="B33" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I33">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33">
-        <v>149</v>
-      </c>
-      <c r="M33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -4317,40 +4384,40 @@
         <v>24</v>
       </c>
       <c r="B34" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I34">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -4358,31 +4425,31 @@
         <v>24</v>
       </c>
       <c r="B35" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -4390,30 +4457,39 @@
         <v>24</v>
       </c>
       <c r="B36" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I36">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4422,31 +4498,40 @@
         <v>24</v>
       </c>
       <c r="B37" s="1">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I37">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>80</v>
+      </c>
+      <c r="M37" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4454,10 +4539,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -4466,39 +4551,30 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I38">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
       </c>
-      <c r="K38" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38">
-        <v>129</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -4507,28 +4583,28 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I39">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L39">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -4536,10 +4612,10 @@
         <v>24</v>
       </c>
       <c r="B40" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -4557,19 +4633,19 @@
         <v>39</v>
       </c>
       <c r="I40">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L40">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -4577,10 +4653,10 @@
         <v>24</v>
       </c>
       <c r="B41" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -4598,7 +4674,7 @@
         <v>51</v>
       </c>
       <c r="I41">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J41" t="s">
         <v>29</v>
@@ -4609,10 +4685,10 @@
         <v>24</v>
       </c>
       <c r="B42" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -4630,10 +4706,10 @@
         <v>52</v>
       </c>
       <c r="I42">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -4641,10 +4717,10 @@
         <v>24</v>
       </c>
       <c r="B43" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
         <v>26</v>
@@ -4653,28 +4729,19 @@
         <v>6</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43">
-        <v>159</v>
-      </c>
-      <c r="M43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -4682,10 +4749,10 @@
         <v>24</v>
       </c>
       <c r="B44" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -4697,16 +4764,16 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -4714,10 +4781,10 @@
         <v>24</v>
       </c>
       <c r="B45" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
@@ -4726,39 +4793,30 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I45">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
       </c>
-      <c r="K45" t="s">
-        <v>39</v>
-      </c>
-      <c r="L45">
-        <v>191</v>
-      </c>
-      <c r="M45" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="1">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -4767,41 +4825,355 @@
         <v>9</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I46">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>123</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <v>217</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50">
+        <v>131</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51">
+        <v>240</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51">
+        <v>149</v>
+      </c>
+      <c r="M51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <v>223</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>47</v>
+      </c>
+      <c r="M52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53">
+        <v>135</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54">
+        <v>147</v>
+      </c>
+      <c r="J54" t="s">
         <v>30</v>
       </c>
-      <c r="K46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46">
-        <v>80</v>
-      </c>
-      <c r="M46" t="s">
-        <v>28</v>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44747</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55">
+        <v>129</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M55" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M55">
+      <sortCondition descending="1" ref="B1:B55"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01E6677-D360-FF48-A560-78F9857B7D01}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4809,10 +5181,12 @@
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4828,10 +5202,13 @@
       <c r="E1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -4840,12 +5217,18 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>130</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -4854,12 +5237,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>262</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -4868,12 +5257,18 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>291</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -4882,12 +5277,18 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -4898,10 +5299,16 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>147</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -4912,10 +5319,16 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -4924,12 +5337,18 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>119</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -4938,12 +5357,18 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>460</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -4952,138 +5377,198 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>145</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>140</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>117</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>314</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>281</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>328</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>146</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>260</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -5092,12 +5577,18 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>278</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -5106,12 +5597,18 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>129</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -5120,12 +5617,18 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>136</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5134,12 +5637,18 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>290</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -5150,10 +5659,16 @@
       <c r="D24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>154</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -5162,12 +5677,18 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>163</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -5176,12 +5697,18 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>288</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -5192,10 +5719,16 @@
       <c r="D27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>143</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -5204,138 +5737,198 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>317</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>158</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>258</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>119</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>136</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>419</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>260</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>165</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>157</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>132</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -5344,12 +5937,18 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>122</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -5360,10 +5959,16 @@
       <c r="D39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>283</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -5374,10 +5979,16 @@
       <c r="D40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>332</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -5388,10 +5999,16 @@
       <c r="D41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>158</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -5402,10 +6019,16 @@
       <c r="D42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>157</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -5414,12 +6037,18 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>328</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -5430,10 +6059,16 @@
       <c r="D44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>174</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5442,12 +6077,18 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>186</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -5456,133 +6097,1093 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>118</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>362</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>129</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>302</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>375</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>184</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>167</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>338</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>128</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>322</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>305</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>337</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>327</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>114</v>
+      </c>
+      <c r="F59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>174</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>440</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>150</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>380</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>255</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65">
         <v>10</v>
       </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>315</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48">
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66">
         <v>11</v>
       </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>270</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
         <v>12</v>
       </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>165</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50">
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
         <v>13</v>
       </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>201</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51">
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69">
         <v>14</v>
       </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>130</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>45</v>
       </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52">
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70">
         <v>15</v>
       </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>235</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>45</v>
       </c>
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53">
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
         <v>16</v>
       </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>122</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
         <v>17</v>
       </c>
-      <c r="D54">
+      <c r="D72">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E72">
+        <v>495</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55">
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73">
         <v>18</v>
       </c>
-      <c r="D55">
-        <v>3</v>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>112</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>320</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>376</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>336</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>314</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>171</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>288</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>310</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>309</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>190</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>136</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>311</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>325</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>325</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>560</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>236</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>95</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>297</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>187</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>125</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>264</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>320</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>120</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>162</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>250</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>235</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>380</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>237</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/golf_scores.xlsx
+++ b/data/golf_scores.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/53gnespoli/local/foreboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7665E3-A3CA-4C47-B5B8-B20E3D5996F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847F350-D4E4-8E47-9D9C-258CD3285CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
+    <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
   </bookViews>
   <sheets>
-    <sheet name="Courses (2)" sheetId="8" r:id="rId1"/>
-    <sheet name="Scores (2)" sheetId="7" r:id="rId2"/>
-    <sheet name="Scores" sheetId="1" r:id="rId3"/>
-    <sheet name="Courses" sheetId="2" r:id="rId4"/>
-    <sheet name="CourseRating" sheetId="3" r:id="rId5"/>
-    <sheet name="Legend" sheetId="6" r:id="rId6"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Courses" sheetId="2" r:id="rId2"/>
+    <sheet name="CourseRating" sheetId="3" r:id="rId3"/>
+    <sheet name="Legend" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scores!$A$1:$M$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scores!$A$1:$M$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="46">
   <si>
     <t>Golfer</t>
   </si>
@@ -55,60 +53,6 @@
   </si>
   <si>
     <t>Tee</t>
-  </si>
-  <si>
-    <t>Hole01</t>
-  </si>
-  <si>
-    <t>Hole02</t>
-  </si>
-  <si>
-    <t>Hole03</t>
-  </si>
-  <si>
-    <t>Hole04</t>
-  </si>
-  <si>
-    <t>Hole05</t>
-  </si>
-  <si>
-    <t>Hole06</t>
-  </si>
-  <si>
-    <t>Hole07</t>
-  </si>
-  <si>
-    <t>Hole08</t>
-  </si>
-  <si>
-    <t>Hole09</t>
-  </si>
-  <si>
-    <t>Hole10</t>
-  </si>
-  <si>
-    <t>Hole11</t>
-  </si>
-  <si>
-    <t>Hole12</t>
-  </si>
-  <si>
-    <t>Hole13</t>
-  </si>
-  <si>
-    <t>Hole14</t>
-  </si>
-  <si>
-    <t>Hole15</t>
-  </si>
-  <si>
-    <t>Hole16</t>
-  </si>
-  <si>
-    <t>Hole17</t>
-  </si>
-  <si>
-    <t>Hole18</t>
   </si>
   <si>
     <t>Slope</t>
@@ -136,9 +80,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>DataType</t>
   </si>
   <si>
     <t>Score</t>
@@ -174,16 +115,7 @@
     <t>Yards</t>
   </si>
   <si>
-    <t>Merry Hill (White/Red)</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Beaverdale</t>
-  </si>
-  <si>
-    <t>Vic Valley (Valley/Lakes)</t>
   </si>
   <si>
     <t>Hole</t>
@@ -604,2572 +536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D960EBE-FF5E-5148-B413-D897889D3D22}">
-  <dimension ref="A1:U42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42">
-        <v>18</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB85E6-76A3-DC41-A527-7684256B3457}">
-  <dimension ref="A1:W58"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="23" width="7" customWidth="1"/>
-    <col min="24" max="24" width="11.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2">
-        <v>6</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>17</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44765</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38">
-        <v>7</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43">
-        <v>12</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44">
-        <v>13</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46">
-        <v>15</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47">
-        <v>16</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48">
-        <v>17</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="1">
-        <v>44747</v>
-      </c>
-      <c r="C49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49">
-        <v>18</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56">
-        <v>7</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="1">
-        <v>44761</v>
-      </c>
-      <c r="C58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58">
-        <v>9</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3202,45 +574,45 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>44756</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3252,27 +624,27 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>44756</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3284,36 +656,36 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>44756</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3325,36 +697,36 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>44756</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3366,27 +738,27 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>44756</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3398,59 +770,59 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>44756</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
       </c>
       <c r="I7">
         <v>236</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>44756</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -3462,36 +834,36 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>44756</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3503,36 +875,36 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>202</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>44756</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3544,36 +916,36 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L10">
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>44765</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3585,36 +957,36 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L11">
         <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>44765</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3626,27 +998,27 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>44765</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -3658,27 +1030,27 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>44765</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -3690,36 +1062,36 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I14">
         <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L14">
         <v>31</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>44765</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -3731,27 +1103,27 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>44765</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -3763,27 +1135,27 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I16">
         <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>44765</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -3795,27 +1167,27 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>216</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>44765</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -3827,27 +1199,27 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I18">
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>44765</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -3859,36 +1231,36 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>125</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>44765</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3900,27 +1272,27 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>44765</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -3932,36 +1304,36 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>149</v>
       </c>
       <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
         <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
       </c>
       <c r="L21">
         <v>115</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
         <v>44765</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -3973,36 +1345,36 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L22">
         <v>130</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
         <v>44765</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -4014,27 +1386,27 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>44765</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -4046,27 +1418,27 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I24">
         <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
         <v>44765</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -4078,27 +1450,27 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I25">
         <v>106</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
         <v>44765</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -4110,27 +1482,27 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I26">
         <v>118</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
         <v>44765</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -4142,36 +1514,36 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I27">
         <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="L27">
         <v>236</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
         <v>44765</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>9</v>
@@ -4183,27 +1555,27 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
         <v>44761</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4215,36 +1587,36 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <v>195</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L29">
         <v>129</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>44761</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -4256,36 +1628,36 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I30">
         <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L30">
         <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>44761</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -4297,36 +1669,36 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I31">
         <v>205</v>
       </c>
       <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
         <v>29</v>
-      </c>
-      <c r="K31" t="s">
-        <v>51</v>
       </c>
       <c r="L31">
         <v>99</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
         <v>44761</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -4338,27 +1710,27 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I32">
         <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>44761</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -4370,27 +1742,27 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I33">
         <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1">
         <v>44761</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -4402,36 +1774,36 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I34">
         <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L34">
         <v>159</v>
       </c>
       <c r="M34" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
         <v>44761</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -4443,27 +1815,27 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I35">
         <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1">
         <v>44761</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -4475,36 +1847,36 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I36">
         <v>167</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L36">
         <v>191</v>
       </c>
       <c r="M36" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1">
         <v>44761</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -4516,36 +1888,36 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I37">
         <v>163</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L37">
         <v>80</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>44747</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4557,27 +1929,27 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I38">
         <v>129</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1">
         <v>44747</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -4589,36 +1961,36 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I39">
         <v>170</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L39">
         <v>104</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <v>44747</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -4630,36 +2002,36 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I40">
         <v>176</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L40">
         <v>159</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
         <v>44747</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -4671,27 +2043,27 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I41">
         <v>122</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
         <v>44747</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -4703,27 +2075,27 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I42">
         <v>165</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1">
         <v>44747</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -4735,27 +2107,27 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I43">
         <v>228</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1">
         <v>44747</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -4767,27 +2139,27 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I44">
         <v>137</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1">
         <v>44747</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -4799,27 +2171,27 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I45">
         <v>190</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1">
         <v>44747</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -4831,27 +2203,27 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I46">
         <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <v>44747</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4863,68 +2235,68 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I47">
         <v>123</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <v>44747</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
         <v>26</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
-        <v>48</v>
       </c>
       <c r="I48">
         <v>217</v>
       </c>
       <c r="J48" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K48" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L48">
         <v>50</v>
       </c>
       <c r="M48" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
         <v>44747</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -4936,27 +2308,27 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I49">
         <v>110</v>
       </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
         <v>44747</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -4968,27 +2340,27 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I50">
         <v>131</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
         <v>44747</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -5000,36 +2372,36 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I51">
         <v>240</v>
       </c>
       <c r="J51" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L51">
         <v>149</v>
       </c>
       <c r="M51" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <v>44747</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -5041,36 +2413,36 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I52">
         <v>223</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K52" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L52">
         <v>47</v>
       </c>
       <c r="M52" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
         <v>44747</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -5082,27 +2454,27 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I53">
         <v>135</v>
       </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <v>44747</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -5114,27 +2486,27 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I54">
         <v>147</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
         <v>44747</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>9</v>
@@ -5146,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I55">
         <v>129</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5165,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01E6677-D360-FF48-A560-78F9857B7D01}">
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -5194,24 +2566,24 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5228,10 +2600,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -5248,10 +2620,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5268,10 +2640,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5288,10 +2660,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -5308,10 +2680,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -5328,10 +2700,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5348,10 +2720,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -5368,10 +2740,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -5388,10 +2760,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5408,10 +2780,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5428,10 +2800,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -5448,10 +2820,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -5468,10 +2840,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -5488,10 +2860,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -5508,10 +2880,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -5528,10 +2900,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -5548,10 +2920,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -5568,10 +2940,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -5588,10 +2960,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5608,10 +2980,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -5628,10 +3000,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -5648,10 +3020,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -5668,10 +3040,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -5688,10 +3060,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -5708,10 +3080,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -5728,10 +3100,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -5748,10 +3120,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5768,10 +3140,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -5788,10 +3160,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -5808,10 +3180,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5828,10 +3200,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5848,10 +3220,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5868,10 +3240,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5888,10 +3260,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -5908,10 +3280,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -5928,10 +3300,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -5948,10 +3320,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -5968,10 +3340,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5988,10 +3360,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -6008,10 +3380,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -6028,10 +3400,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -6048,10 +3420,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -6068,10 +3440,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -6088,10 +3460,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -6108,10 +3480,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -6128,10 +3500,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -6148,10 +3520,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -6168,10 +3540,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6188,10 +3560,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6208,10 +3580,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -6228,10 +3600,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -6248,10 +3620,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -6268,10 +3640,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>9</v>
@@ -6288,10 +3660,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -6308,10 +3680,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6328,10 +3700,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6348,10 +3720,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6368,10 +3740,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6388,10 +3760,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6408,10 +3780,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -6428,10 +3800,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -6448,10 +3820,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -6468,10 +3840,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -6488,10 +3860,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>11</v>
@@ -6508,10 +3880,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -6528,10 +3900,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <v>13</v>
@@ -6548,10 +3920,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>14</v>
@@ -6568,10 +3940,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>15</v>
@@ -6588,10 +3960,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -6608,10 +3980,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>17</v>
@@ -6628,10 +4000,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C73">
         <v>18</v>
@@ -6648,10 +4020,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6668,10 +4040,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6688,10 +4060,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -6708,10 +4080,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -6728,10 +4100,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -6748,10 +4120,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -6768,10 +4140,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <v>7</v>
@@ -6788,10 +4160,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -6808,10 +4180,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -6828,10 +4200,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6848,10 +4220,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6868,10 +4240,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -6888,10 +4260,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -6908,10 +4280,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -6928,10 +4300,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -6948,10 +4320,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -6968,10 +4340,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -6988,10 +4360,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -7008,10 +4380,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7028,10 +4400,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -7048,10 +4420,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -7068,10 +4440,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -7088,10 +4460,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -7108,10 +4480,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -7128,10 +4500,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -7148,10 +4520,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -7168,10 +4540,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -7192,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB4061B-B5D9-BF4E-A29C-54303FD0995D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7212,18 +4584,18 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>92</v>
@@ -7237,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36445168-5FC4-8840-96C0-35655D3C374B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/golf_scores.xlsx
+++ b/data/golf_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/53gnespoli/local/foreboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847F350-D4E4-8E47-9D9C-258CD3285CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4436E3-1211-6D4D-91E8-BBFE9BF15CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="46">
   <si>
     <t>Golfer</t>
   </si>
@@ -537,10 +537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,6 +2528,339 @@
       </c>
       <c r="J55" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56">
+        <v>204</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56">
+        <v>132</v>
+      </c>
+      <c r="M56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57">
+        <v>105</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>179</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58">
+        <v>110</v>
+      </c>
+      <c r="M58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>176</v>
+      </c>
+      <c r="J59" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59">
+        <v>136</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60">
+        <v>181</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61">
+        <v>150</v>
+      </c>
+      <c r="J61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>187</v>
+      </c>
+      <c r="J62" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62">
+        <v>150</v>
+      </c>
+      <c r="M62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <v>96</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44769</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>191</v>
+      </c>
+      <c r="J64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64">
+        <v>105</v>
+      </c>
+      <c r="M64" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/golf_scores.xlsx
+++ b/data/golf_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/53gnespoli/local/foreboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4436E3-1211-6D4D-91E8-BBFE9BF15CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CBE92-6709-0A40-83B8-366A066B03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-7300" windowWidth="25600" windowHeight="28300" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20500" xr2:uid="{9B5996F5-7DEB-EB41-AAED-6DFC421E4157}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -540,10 +540,10 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B56:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,10 +609,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -621,30 +621,39 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -653,28 +662,19 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -682,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -703,16 +703,16 @@
         <v>20</v>
       </c>
       <c r="I4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L4">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -723,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -735,19 +735,28 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>136</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -755,10 +764,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -767,19 +776,19 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -787,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -805,10 +814,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I7">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -819,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -834,25 +843,25 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -860,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -872,39 +881,30 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>202</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44756</v>
+        <v>44769</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -916,22 +916,22 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1914,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1929,13 +1929,13 @@
         <v>4</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
       </c>
       <c r="I38">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
         <v>10</v>
@@ -1946,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1964,19 +1964,19 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
         <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L39">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
         <v>10</v>
@@ -1987,10 +1987,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2002,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J40" t="s">
         <v>10</v>
@@ -2017,7 +2017,7 @@
         <v>30</v>
       </c>
       <c r="L40">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M40" t="s">
         <v>10</v>
@@ -2028,10 +2028,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2040,19 +2040,19 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I41">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2060,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2075,16 +2075,16 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>30</v>
       </c>
       <c r="I42">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2092,10 +2092,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2104,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2113,10 +2113,10 @@
         <v>26</v>
       </c>
       <c r="I43">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2124,10 +2124,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2139,16 +2139,25 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44">
+        <v>56</v>
+      </c>
+      <c r="M44" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2156,10 +2165,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2168,19 +2177,28 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45">
+        <v>182</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
         <v>20</v>
       </c>
-      <c r="I45">
-        <v>190</v>
-      </c>
-      <c r="J45" t="s">
-        <v>10</v>
+      <c r="L45">
+        <v>202</v>
+      </c>
+      <c r="M45" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2188,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="1">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2200,18 +2218,27 @@
         <v>9</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I46">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2223,7 +2250,7 @@
         <v>44747</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2241,10 +2268,10 @@
         <v>29</v>
       </c>
       <c r="I47">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2255,7 +2282,7 @@
         <v>44747</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2270,19 +2297,19 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I48">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="J48" t="s">
         <v>10</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="M48" t="s">
         <v>10</v>
@@ -2296,7 +2323,7 @@
         <v>44747</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2305,20 +2332,29 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="J49" t="s">
         <v>10</v>
       </c>
+      <c r="K49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49">
+        <v>159</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -2328,7 +2364,7 @@
         <v>44747</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -2340,16 +2376,16 @@
         <v>4</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
       </c>
       <c r="I50">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2360,7 +2396,7 @@
         <v>44747</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2369,28 +2405,19 @@
         <v>5</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I51">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="J51" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" t="s">
-        <v>30</v>
-      </c>
-      <c r="L51">
-        <v>149</v>
-      </c>
-      <c r="M51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -2401,7 +2428,7 @@
         <v>44747</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2410,29 +2437,20 @@
         <v>6</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I52">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="K52" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52">
-        <v>47</v>
-      </c>
-      <c r="M52" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2442,7 +2460,7 @@
         <v>44747</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2451,16 +2469,16 @@
         <v>7</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>30</v>
       </c>
       <c r="I53">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J53" t="s">
         <v>9</v>
@@ -2474,7 +2492,7 @@
         <v>44747</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2483,19 +2501,19 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -2506,7 +2524,7 @@
         <v>44747</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2521,13 +2539,13 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I55">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -2535,10 +2553,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2547,28 +2565,19 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I56">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="J56" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56">
-        <v>132</v>
-      </c>
-      <c r="M56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -2576,10 +2585,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2588,19 +2597,28 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I57">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="J57" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -2608,10 +2626,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2620,27 +2638,18 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I58">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58">
-        <v>110</v>
-      </c>
-      <c r="M58" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2649,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2661,39 +2670,30 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I59">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="J59" t="s">
         <v>10</v>
       </c>
-      <c r="K59" t="s">
-        <v>33</v>
-      </c>
-      <c r="L59">
-        <v>136</v>
-      </c>
-      <c r="M59" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2708,13 +2708,22 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I60">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60">
+        <v>149</v>
+      </c>
+      <c r="M60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -2722,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2734,18 +2743,27 @@
         <v>6</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I61">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61">
+        <v>47</v>
+      </c>
+      <c r="M61" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2754,10 +2772,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2766,28 +2784,19 @@
         <v>7</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I62">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="J62" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62">
-        <v>150</v>
-      </c>
-      <c r="M62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -2795,10 +2804,10 @@
         <v>6</v>
       </c>
       <c r="B63" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2807,16 +2816,16 @@
         <v>8</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I63">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="J63" t="s">
         <v>12</v>
@@ -2827,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="1">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2839,34 +2848,25 @@
         <v>9</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I64">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="J64" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64">
-        <v>105</v>
-      </c>
-      <c r="M64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M55" xr:uid="{D1865613-7FB9-BD4C-8320-7D39193985C1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M55">
-      <sortCondition descending="1" ref="B1:B55"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M64">
+      <sortCondition descending="1" ref="B1:B64"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
